--- a/mobi_client/mobi_client/mobi_config/has_limit_state_excel/013_讯息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/has_limit_state_excel/013_讯息表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17CAF66-2EDD-4967-B909-ADED06E4DEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact|联系人表" sheetId="4" r:id="rId1"/>
@@ -16,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,13 +45,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ADMIN</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
   <si>
     <t>角色id</t>
   </si>
@@ -191,12 +197,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>LimitState</t>
-  </si>
-  <si>
-    <t>IN:[0;1]</t>
   </si>
   <si>
     <t>凯瑟琳</t>
@@ -281,6 +281,9 @@
     <t>判定为不回复时间（S）</t>
   </si>
   <si>
+    <t>完成短信后获得的任务</t>
+  </si>
+  <si>
     <t>是否紧急</t>
   </si>
   <si>
@@ -311,6 +314,9 @@
     <t>endTime</t>
   </si>
   <si>
+    <t>quest</t>
+  </si>
+  <si>
     <t>urgent</t>
   </si>
   <si>
@@ -320,9 +326,6 @@
     <t>aint</t>
   </si>
   <si>
-    <t>IN:[0;1;2;3;4;5;10]</t>
-  </si>
-  <si>
     <t>询问凯瑟琳怎么加入的STS</t>
   </si>
   <si>
@@ -395,6 +398,18 @@
     <t>xt_wuliu_message</t>
   </si>
   <si>
+    <t>致命拥抱</t>
+  </si>
+  <si>
+    <t>xt_hug_start</t>
+  </si>
+  <si>
+    <t>迷醉金钞</t>
+  </si>
+  <si>
+    <t>xt_chat_mizui</t>
+  </si>
+  <si>
     <t>社畜支线</t>
   </si>
   <si>
@@ -407,23 +422,25 @@
     <t>chat_qiqiu</t>
   </si>
   <si>
-    <t>致命拥抱</t>
-  </si>
-  <si>
-    <t>xt_hug_start</t>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>IN:[0;1]</t>
+  </si>
+  <si>
+    <t>LimitState</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_OR_NULL:Quest</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,144 +471,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,8 +485,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,25 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399456770531327"/>
+        <fgColor theme="3" tint="0.39942625202185128"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,186 +539,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -859,283 +573,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1144,87 +607,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1511,21 +936,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1565,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1585,30 +1011,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1617,18 +1043,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1637,18 +1063,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1657,18 +1083,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1677,119 +1103,123 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" style="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="16.4416666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.125" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.25" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="23.125" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.25" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -1798,25 +1228,28 @@
         <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1853,83 +1286,83 @@
       <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+    <row r="4" spans="1:15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:13">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <v>60</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:13">
+      <c r="M5" s="6"/>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -1937,46 +1370,48 @@
       <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="6">
         <v>60</v>
       </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:13">
+      <c r="M6" s="6"/>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>13</v>
-      </c>
-      <c r="L7" s="9">
+        <v>31</v>
+      </c>
+      <c r="L7" s="6">
         <v>60</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:13">
+      <c r="M7" s="6"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1986,29 +1421,30 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>13</v>
-      </c>
-      <c r="L8" s="9">
+        <v>31</v>
+      </c>
+      <c r="L8" s="6">
         <v>60</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:13">
+      <c r="M8" s="6"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2018,14 +1454,14 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -2033,14 +1469,15 @@
       <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="6">
         <v>60</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:13">
+      <c r="M9" s="6"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2050,14 +1487,14 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G10" s="1">
         <v>4</v>
@@ -2065,14 +1502,15 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="6">
         <v>60</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:13">
+      <c r="M10" s="6"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2082,14 +1520,14 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G11" s="1">
         <v>5</v>
@@ -2097,14 +1535,15 @@
       <c r="H11" s="1">
         <v>3</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="6">
         <v>60</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:13">
+      <c r="M11" s="6"/>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2114,14 +1553,14 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G12" s="1">
         <v>10</v>
@@ -2129,31 +1568,32 @@
       <c r="H12" s="1">
         <v>5</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="6">
         <v>60</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:13">
+      <c r="M12" s="6"/>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>101</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -2161,31 +1601,32 @@
       <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="6">
         <v>60</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:13">
+      <c r="M13" s="6"/>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>101</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
@@ -2193,31 +1634,32 @@
       <c r="H14" s="1">
         <v>11</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="6">
         <v>60</v>
       </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:13">
+      <c r="M14" s="6"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>101</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
@@ -2225,14 +1667,15 @@
       <c r="H15" s="1">
         <v>2</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="6">
         <v>60</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:13">
+      <c r="M15" s="6"/>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2242,12 +1685,12 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G16" s="1">
         <v>10</v>
@@ -2264,14 +1707,17 @@
       <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <v>999999</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:13">
+      <c r="M16" s="6">
+        <v>3004</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2281,122 +1727,169 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="6">
         <v>999999</v>
       </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:13">
+      <c r="M17" s="6">
+        <v>3009</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>999999</v>
+      </c>
+      <c r="M18" s="6">
+        <v>3023</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
         <v>101</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="1" t="s">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="1">
+      <c r="E21" s="7"/>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H21" s="1">
+        <v>31</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>300</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>999999</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1">
+        <v>101</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
         <v>3002</v>
       </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
         <v>600</v>
       </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="9">
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6">
         <v>999999</v>
       </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1">
-        <v>101</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="1">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1">
-        <v>8</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>20</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="9">
-        <v>999999</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="M22" s="6">
+        <v>3003</v>
+      </c>
+      <c r="N22" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2404,10 +1897,10 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>